--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/5.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/5.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1251753736777508</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.60876469225368</v>
+        <v>-1.619992957655478</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1046904869265509</v>
+        <v>0.1006846082628407</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.09274817557292216</v>
+        <v>-0.09232319041017097</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1194319820227633</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.626293756198045</v>
+        <v>-1.637529104685889</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1245010915872414</v>
+        <v>0.1195665416419637</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.09095694181288197</v>
+        <v>-0.09096481190848847</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1227827687896612</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.764646888922133</v>
+        <v>-1.773765968701388</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1000959251114742</v>
+        <v>0.09713204710606502</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.08826536911545779</v>
+        <v>-0.08900673212159042</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1344707782091194</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.912804586752802</v>
+        <v>-1.918130280449723</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1686413098058766</v>
+        <v>0.1629732669500728</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.101258896961795</v>
+        <v>-0.1012101023690346</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1490306678983245</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.886414582165075</v>
+        <v>-1.892494231021099</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2375314046878438</v>
+        <v>0.2291544749242815</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1522398022816029</v>
+        <v>-0.1503572754125273</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1604500773696577</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.855451265020409</v>
+        <v>-1.857174028948672</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3521215707376552</v>
+        <v>0.3410892707164586</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1581864465218769</v>
+        <v>-0.1558883786047779</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1646984838908309</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.680000075626385</v>
+        <v>-1.67837253985496</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4213453576733381</v>
+        <v>0.4084651592037346</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1632028454614622</v>
+        <v>-0.1601948949206566</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1570033202161741</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.380424099355271</v>
+        <v>-1.375389599195791</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5152387462971667</v>
+        <v>0.4974539042455903</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1675188058920687</v>
+        <v>-0.1630580357023026</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1309807874628906</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.9683018208633543</v>
+        <v>-0.9593063015851209</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5014408946798449</v>
+        <v>0.4851183163919567</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1423171857409234</v>
+        <v>-0.1372598623041843</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.08208717185181909</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.3948606836580122</v>
+        <v>-0.390917765759154</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4687406474348231</v>
+        <v>0.4497611248701794</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1245764162247434</v>
+        <v>-0.1180174785462834</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.004541196622099992</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2926016116847909</v>
+        <v>0.2911613841888008</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3864462057158592</v>
+        <v>0.3618505829264147</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.0436529451604324</v>
+        <v>-0.03777398374237433</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.1049568208393335</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9996053544185421</v>
+        <v>0.9935626950118688</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1609443563027162</v>
+        <v>0.1315054766770294</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05586283976468229</v>
+        <v>0.06262482590979004</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.2436294073605453</v>
       </c>
       <c r="E14" t="n">
-        <v>1.734096193067567</v>
+        <v>1.722473635875883</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.128531926276572</v>
+        <v>-0.1606009918539522</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1868306747716273</v>
+        <v>0.193016569918339</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.4042576935343169</v>
       </c>
       <c r="E15" t="n">
-        <v>2.437377380579442</v>
+        <v>2.424440517421472</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4268841026808747</v>
+        <v>-0.4606011662782568</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3064750162199352</v>
+        <v>0.3114756749683075</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.5786284416595837</v>
       </c>
       <c r="E16" t="n">
-        <v>3.103206357119089</v>
+        <v>3.084908384833969</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.7482877891166261</v>
+        <v>-0.7818663390313336</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4358200375128192</v>
+        <v>0.4412708657298835</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.7594459256863121</v>
       </c>
       <c r="E17" t="n">
-        <v>3.885931437721252</v>
+        <v>3.855969983747294</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.155063911663045</v>
+        <v>-1.184678294420757</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5967524745319654</v>
+        <v>0.5998580142582917</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.9432700545250177</v>
       </c>
       <c r="E18" t="n">
-        <v>4.464262265326915</v>
+        <v>4.427497900710695</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.501915552242425</v>
+        <v>-1.530137715087346</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7276400345637242</v>
+        <v>0.73201580772094</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.123536256345741</v>
       </c>
       <c r="E19" t="n">
-        <v>5.065367575598677</v>
+        <v>5.018551524873831</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.901826590391291</v>
+        <v>-1.927638929961501</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9124471936147592</v>
+        <v>0.9133695688198414</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.291267547555525</v>
       </c>
       <c r="E20" t="n">
-        <v>5.488660667794464</v>
+        <v>5.435247902932248</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.283606502281894</v>
+        <v>-2.308285548084767</v>
       </c>
       <c r="G20" t="n">
-        <v>1.084695254096936</v>
+        <v>1.083281784926008</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.440163563563276</v>
       </c>
       <c r="E21" t="n">
-        <v>5.836416582359032</v>
+        <v>5.779057751559714</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.697837966396353</v>
+        <v>-2.716864709534636</v>
       </c>
       <c r="G21" t="n">
-        <v>1.272905442488223</v>
+        <v>1.268293566462812</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.566204878404654</v>
       </c>
       <c r="E22" t="n">
-        <v>6.105979949034746</v>
+        <v>6.044697088566024</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.04231362511213</v>
+        <v>-3.056002082400521</v>
       </c>
       <c r="G22" t="n">
-        <v>1.402292962297382</v>
+        <v>1.394134821191681</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.6669755287636</v>
       </c>
       <c r="E23" t="n">
-        <v>6.343677298599726</v>
+        <v>6.276435201737761</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.306062565153759</v>
+        <v>-3.311240301053277</v>
       </c>
       <c r="G23" t="n">
-        <v>1.4960525592959</v>
+        <v>1.488873458083648</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.742662781395758</v>
       </c>
       <c r="E24" t="n">
-        <v>6.398365018950197</v>
+        <v>6.330115549850599</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.52988021410711</v>
+        <v>-3.529914842527778</v>
       </c>
       <c r="G24" t="n">
-        <v>1.60403341905537</v>
+        <v>1.594431902415436</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.792352473815755</v>
       </c>
       <c r="E25" t="n">
-        <v>6.431893200253024</v>
+        <v>6.363221894028917</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.675234583882743</v>
+        <v>-3.672849157904412</v>
       </c>
       <c r="G25" t="n">
-        <v>1.655604581545666</v>
+        <v>1.645011432859312</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.815469675205</v>
       </c>
       <c r="E26" t="n">
-        <v>6.377422694541291</v>
+        <v>6.31222997057526</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.839668426437223</v>
+        <v>-3.831792034754234</v>
       </c>
       <c r="G26" t="n">
-        <v>1.695244679096502</v>
+        <v>1.684978926387379</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.814392082060042</v>
       </c>
       <c r="E27" t="n">
-        <v>6.257121987119401</v>
+        <v>6.195484972348388</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.955768863833922</v>
+        <v>-3.93959817839124</v>
       </c>
       <c r="G27" t="n">
-        <v>1.713489134731499</v>
+        <v>1.702093236293282</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.791596965073751</v>
       </c>
       <c r="E28" t="n">
-        <v>6.049127952392486</v>
+        <v>5.989866132475515</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.954026424666642</v>
+        <v>-3.936858598110616</v>
       </c>
       <c r="G28" t="n">
-        <v>1.702844043414142</v>
+        <v>1.691544160142324</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.75119441640827</v>
       </c>
       <c r="E29" t="n">
-        <v>5.914039335325976</v>
+        <v>5.85552202645338</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.893074895222955</v>
+        <v>-3.874279532895504</v>
       </c>
       <c r="G29" t="n">
-        <v>1.655642358004577</v>
+        <v>1.644418027650582</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.697879609967871</v>
       </c>
       <c r="E30" t="n">
-        <v>5.674280020712091</v>
+        <v>5.620464306954821</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.807832315689795</v>
+        <v>-3.786904944462542</v>
       </c>
       <c r="G30" t="n">
-        <v>1.625413320779997</v>
+        <v>1.613538920528905</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.636158026819818</v>
       </c>
       <c r="E31" t="n">
-        <v>5.45952714787831</v>
+        <v>5.410260349381598</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.679766184932968</v>
+        <v>-3.659791882283662</v>
       </c>
       <c r="G31" t="n">
-        <v>1.532632763674928</v>
+        <v>1.52115029418504</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.570868321322227</v>
       </c>
       <c r="E32" t="n">
-        <v>5.218832865906373</v>
+        <v>5.173809622960688</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.553342543129218</v>
+        <v>-3.53359568624294</v>
       </c>
       <c r="G32" t="n">
-        <v>1.428948976116609</v>
+        <v>1.418988583117019</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.50685568083507</v>
       </c>
       <c r="E33" t="n">
-        <v>4.883053662835782</v>
+        <v>4.845399977416028</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.348869589176652</v>
+        <v>-3.33415251039249</v>
       </c>
       <c r="G33" t="n">
-        <v>1.310869209674874</v>
+        <v>1.302948745456489</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.445906824882158</v>
       </c>
       <c r="E34" t="n">
-        <v>4.55584027182331</v>
+        <v>4.523834167010782</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.233511301795646</v>
+        <v>-3.220118760102059</v>
       </c>
       <c r="G34" t="n">
-        <v>1.214133142517977</v>
+        <v>1.207918915027082</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.390202951279757</v>
       </c>
       <c r="E35" t="n">
-        <v>4.195621273856284</v>
+        <v>4.169234417306799</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.083044517914028</v>
+        <v>-3.07299125778628</v>
       </c>
       <c r="G35" t="n">
-        <v>1.09380095471366</v>
+        <v>1.08956526925824</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.339145624883042</v>
       </c>
       <c r="E36" t="n">
-        <v>3.879196209901207</v>
+        <v>3.857123739763207</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.982004295469934</v>
+        <v>-2.973429039297087</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9865897903045068</v>
+        <v>0.9824359538433942</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.290848318820415</v>
       </c>
       <c r="E37" t="n">
-        <v>3.545384530732242</v>
+        <v>3.524837285122783</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.842478518500477</v>
+        <v>-2.835242752599858</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9058048329228703</v>
+        <v>0.9027638279805174</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.244528419675648</v>
       </c>
       <c r="E38" t="n">
-        <v>3.189259556499719</v>
+        <v>3.171263795885888</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.710195590517685</v>
+        <v>-2.704384311921843</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8216247162965882</v>
+        <v>0.8200963437298052</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.19753667797989</v>
       </c>
       <c r="E39" t="n">
-        <v>2.857908069217347</v>
+        <v>2.842035660398151</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.556462716959368</v>
+        <v>-2.553549994575401</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7414976989076554</v>
+        <v>0.7399110876333843</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.148426607182519</v>
       </c>
       <c r="E40" t="n">
-        <v>2.619930544248775</v>
+        <v>2.604344606909656</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.41797579260997</v>
+        <v>-2.41681495350801</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7002505278339709</v>
+        <v>0.6977887619282566</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.097009217574918</v>
       </c>
       <c r="E41" t="n">
-        <v>2.412488990233436</v>
+        <v>2.397134433705148</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.300255689537452</v>
+        <v>-2.300789282019573</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6110178098283136</v>
+        <v>0.610386628160672</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.043396067493281</v>
       </c>
       <c r="E42" t="n">
-        <v>2.165235770583039</v>
+        <v>2.149767884678017</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.236362318356054</v>
+        <v>-2.23575238594655</v>
       </c>
       <c r="G42" t="n">
-        <v>0.55532271724021</v>
+        <v>0.5530639998011435</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.9874847709005026</v>
       </c>
       <c r="E43" t="n">
-        <v>1.931142924805836</v>
+        <v>1.915904845692525</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.139391722350082</v>
+        <v>-2.140215721360083</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4906793259475121</v>
+        <v>0.4888613338624098</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.9303542328555562</v>
       </c>
       <c r="E44" t="n">
-        <v>1.698504472696716</v>
+        <v>1.683929055633472</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.085031397976842</v>
+        <v>-2.084018516672285</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4468948360502908</v>
+        <v>0.444733707796745</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.8718724366862892</v>
       </c>
       <c r="E45" t="n">
-        <v>1.482470348298197</v>
+        <v>1.46832778649331</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.026976850725908</v>
+        <v>-2.023838256598035</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3609612621228798</v>
+        <v>0.3602938780154483</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.8121489665432103</v>
       </c>
       <c r="E46" t="n">
-        <v>1.285351211680348</v>
+        <v>1.271038655810361</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.95485372056879</v>
+        <v>-1.951774939167525</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3080427392647507</v>
+        <v>0.3067347293749498</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.7525240572495713</v>
       </c>
       <c r="E47" t="n">
-        <v>1.093950486530184</v>
+        <v>1.082036735801059</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.870182509976662</v>
+        <v>-1.868000919474539</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2936987030123375</v>
+        <v>0.2911582361505582</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.6931364828445981</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9334776630944577</v>
+        <v>0.9216268731301848</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.814313488275654</v>
+        <v>-1.812372722699091</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2260536572553191</v>
+        <v>0.2242797377056133</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.6346180377525634</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8037674693654319</v>
+        <v>0.791000600272562</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.772660220268674</v>
+        <v>-1.77127587045149</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1888580113998626</v>
+        <v>0.1872682520873489</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.5781307725343208</v>
       </c>
       <c r="E50" t="n">
-        <v>0.7125829676493618</v>
+        <v>0.6987914121085251</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.695686750189267</v>
+        <v>-1.694633731397117</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1561719303269325</v>
+        <v>0.1544672676185639</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.5239047548469052</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6038025061762712</v>
+        <v>0.5895151346122248</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.617046393860403</v>
+        <v>-1.617613040744071</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1238777800152063</v>
+        <v>0.1207124275622706</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.4722230279086456</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4432745920712993</v>
+        <v>0.431845639231535</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.563393591082187</v>
+        <v>-1.563774503709542</v>
       </c>
       <c r="G52" t="n">
-        <v>0.07332343387727082</v>
+        <v>0.07219801020554083</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.4245352906025525</v>
       </c>
       <c r="E53" t="n">
-        <v>0.3572229667097906</v>
+        <v>0.3462725156829018</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.553362367222138</v>
+        <v>-1.55318371605187</v>
       </c>
       <c r="G53" t="n">
-        <v>0.01247815072427143</v>
+        <v>0.01212399642197877</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.3808602668030407</v>
       </c>
       <c r="E54" t="n">
-        <v>0.2626102513475276</v>
+        <v>0.2521697825159402</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.503819328369638</v>
+        <v>-1.50526191689431</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.02036848029903133</v>
+        <v>-0.01999701178640436</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.3421537303423305</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1594270018697823</v>
+        <v>0.1497153038913571</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.495183472460622</v>
+        <v>-1.496295516969821</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.03345959733088914</v>
+        <v>-0.03361699924301921</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.3087012558535506</v>
       </c>
       <c r="E56" t="n">
-        <v>0.04114733499964215</v>
+        <v>0.03370379857501121</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.49762556312732</v>
+        <v>-1.498674646871667</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.08645209908771941</v>
+        <v>-0.08604128009705993</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.2796922212494321</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.01877557294827503</v>
+        <v>-0.0264819705661632</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.501781760617114</v>
+        <v>-1.502049343867736</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.08986457254269929</v>
+        <v>-0.09042492334988234</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.2548841139977745</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.1373181010116724</v>
+        <v>-0.1439604617035613</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.523057777079736</v>
+        <v>-1.523073517270949</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1504202361773793</v>
+        <v>-0.1488745494002621</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.2341818750873284</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.2221577316497795</v>
+        <v>-0.2284585301923462</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.534832227116626</v>
+        <v>-1.534282107433731</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.196112437249617</v>
+        <v>-0.1943007412409999</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.2169602759085376</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.3336313398394155</v>
+        <v>-0.3378796174478061</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.522931855550032</v>
+        <v>-1.523237215259564</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.2320850702478229</v>
+        <v>-0.2289700864067689</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.2026250838061045</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.4343905998703577</v>
+        <v>-0.4388104455629701</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.57477217531007</v>
+        <v>-1.573542866376334</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2446772232182284</v>
+        <v>-0.242449986161588</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.190122709139885</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.5367805437109675</v>
+        <v>-0.5394138777009035</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.600081615771024</v>
+        <v>-1.599658204627394</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2662428591991692</v>
+        <v>-0.2638047035802744</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.1779506831886948</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.6453862890615937</v>
+        <v>-0.6463291265152528</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.658084220390955</v>
+        <v>-1.658012602520935</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.307475864100762</v>
+        <v>-0.3041169072959063</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.1652398134675225</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.7456749173752669</v>
+        <v>-0.7450547538414745</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.739826968407903</v>
+        <v>-1.736380653541815</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.3684329026113737</v>
+        <v>-0.3636211261575575</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.1517798220281184</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8447444678794929</v>
+        <v>-0.843659181695356</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.823330256812026</v>
+        <v>-1.817416666973299</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3964834973720733</v>
+        <v>-0.3924162319626323</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.1369910140381696</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9082726666247493</v>
+        <v>-0.9081624852862583</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.86086274275944</v>
+        <v>-1.855263169735413</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.4405040901374896</v>
+        <v>-0.435486117178783</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.1215275467690847</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.005347147892727</v>
+        <v>-1.003122271864768</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.881416284445385</v>
+        <v>-1.876339285769629</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.476840321552716</v>
+        <v>-0.4712037590793382</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.1052949544611513</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.042675798363933</v>
+        <v>-1.040645313697455</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.900855420593448</v>
+        <v>-1.8961262801435</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.498088005671154</v>
+        <v>-0.4925584764980246</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.08825331696533842</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.063371001770794</v>
+        <v>-1.061265751196055</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.98757679109107</v>
+        <v>-1.981881989910204</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.5353418902340986</v>
+        <v>-0.5289734088693161</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.07069875962747764</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.059459564254362</v>
+        <v>-1.056539758784349</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.012705219353075</v>
+        <v>-2.006146281674615</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.5639748720696794</v>
+        <v>-0.5564353204786492</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.05309302460193401</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.042833987285624</v>
+        <v>-1.041451998497122</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.049449121720718</v>
+        <v>-2.041878876756823</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5577449043875713</v>
+        <v>-0.5515338249349189</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.03558522812773964</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.046732045639525</v>
+        <v>-1.043201520750447</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.098073720415939</v>
+        <v>-2.090040713830381</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.5636144216909016</v>
+        <v>-0.5573451035307609</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.01826425462343659</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.9255750718156471</v>
+        <v>-0.9251894371309285</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.053994888943035</v>
+        <v>-2.04935389356388</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5716733995919612</v>
+        <v>-0.5656433323382581</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.001264223035199826</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.7923146779585276</v>
+        <v>-0.7950393050574991</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.062649633081507</v>
+        <v>-2.060191015214035</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5711618433775384</v>
+        <v>-0.5644864282841022</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.01529640060700828</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.6807261663730366</v>
+        <v>-0.6841779903060491</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.037097006666311</v>
+        <v>-2.035746498260235</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.5645556851254394</v>
+        <v>-0.5586515394014405</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.0307674729412865</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.5224490996115247</v>
+        <v>-0.5285877741845973</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.000968545775097</v>
+        <v>-2.00146908385567</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.5452881170615977</v>
+        <v>-0.5390298170353062</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.04431134071440394</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.366377233638955</v>
+        <v>-0.3758355145388508</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.966983898927093</v>
+        <v>-1.967393930908192</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4828011319650817</v>
+        <v>-0.4783561019665286</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.05492779219038073</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.1777625223334936</v>
+        <v>-0.1901736631049495</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.974822514151171</v>
+        <v>-1.974638353913979</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4375842846674768</v>
+        <v>-0.4349226183333574</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.06128091869086686</v>
       </c>
       <c r="E79" t="n">
-        <v>0.04133936533244084</v>
+        <v>0.02582740689202256</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.91949338100877</v>
+        <v>-1.921893760168753</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4110683585500454</v>
+        <v>-0.4089182484303487</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.0628285723274636</v>
       </c>
       <c r="E80" t="n">
-        <v>0.223780773644161</v>
+        <v>0.2063563819713624</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.831164149978739</v>
+        <v>-1.835100771801112</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3592359088856138</v>
+        <v>-0.3574667113932719</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.05949990860778064</v>
       </c>
       <c r="E81" t="n">
-        <v>0.4573400269392422</v>
+        <v>0.4376096972537381</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.795077400594239</v>
+        <v>-1.798437931418216</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3058955489029761</v>
+        <v>-0.3062859056450586</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.05171692843792874</v>
       </c>
       <c r="E82" t="n">
-        <v>0.7076720279909036</v>
+        <v>0.6840097985403903</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.748657215678399</v>
+        <v>-1.753095162590907</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2596713293677388</v>
+        <v>-0.2606975898348268</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.03954625578260388</v>
       </c>
       <c r="E83" t="n">
-        <v>0.9292435516581589</v>
+        <v>0.9041410947116555</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.701019526972234</v>
+        <v>-1.705021470588141</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2153013043573937</v>
+        <v>-0.2171680910352563</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.02341608701131924</v>
       </c>
       <c r="E84" t="n">
-        <v>1.146535317334598</v>
+        <v>1.121099168334378</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.651545744961072</v>
+        <v>-1.653719465367588</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1672040020678086</v>
+        <v>-0.1700136261993303</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.003924042456006012</v>
       </c>
       <c r="E85" t="n">
-        <v>1.401033747000342</v>
+        <v>1.371761713401513</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.584051018030137</v>
+        <v>-1.583950280806374</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1199078755109655</v>
+        <v>-0.1225758379215702</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.0179048489580107</v>
       </c>
       <c r="E86" t="n">
-        <v>1.592327438850257</v>
+        <v>1.564043889259605</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.508694852597867</v>
+        <v>-1.508028255499996</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.07898023031890504</v>
+        <v>-0.08244936846225175</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.04052551319363607</v>
       </c>
       <c r="E87" t="n">
-        <v>1.76705143141024</v>
+        <v>1.739833492764708</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.419966607720587</v>
+        <v>-1.417919595853335</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.02660317003850335</v>
+        <v>-0.03043590659887052</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.06232752874821101</v>
       </c>
       <c r="E88" t="n">
-        <v>1.903526759322616</v>
+        <v>1.878139404915157</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.312136853796762</v>
+        <v>-1.308047552119623</v>
       </c>
       <c r="G88" t="n">
-        <v>0.012418337997662</v>
+        <v>0.00785997862237521</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.08108457486412689</v>
       </c>
       <c r="E89" t="n">
-        <v>1.994141466116775</v>
+        <v>1.970830242930312</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.158532262796831</v>
+        <v>-1.153348230820827</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04806042698039478</v>
+        <v>0.04278903694315878</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.09498640617091098</v>
       </c>
       <c r="E90" t="n">
-        <v>2.067838615395195</v>
+        <v>2.045569392867033</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.018296603203667</v>
+        <v>-1.01239403149879</v>
       </c>
       <c r="G90" t="n">
-        <v>0.06716429705562123</v>
+        <v>0.06173865314449775</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1025443283222346</v>
       </c>
       <c r="E91" t="n">
-        <v>2.106923084196212</v>
+        <v>2.08706211092364</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.834647135216349</v>
+        <v>-0.8286147069339641</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04864438807439733</v>
+        <v>0.04450156974713392</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1024909804252116</v>
       </c>
       <c r="E92" t="n">
-        <v>2.165166513741701</v>
+        <v>2.145179618939425</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.6307006906598582</v>
+        <v>-0.6249397806758977</v>
       </c>
       <c r="G92" t="n">
-        <v>0.06959300855978819</v>
+        <v>0.06357710747817695</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.09444310703459523</v>
       </c>
       <c r="E93" t="n">
-        <v>2.156377190968358</v>
+        <v>2.137701454094126</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.485676864899698</v>
+        <v>-0.4794327310454982</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05837340026315688</v>
+        <v>0.05340736993545321</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.07874436416254808</v>
       </c>
       <c r="E94" t="n">
-        <v>2.139550926561654</v>
+        <v>2.1214056341313</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2870435218871578</v>
+        <v>-0.2821640626111256</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03043456086006967</v>
+        <v>0.02538668153805837</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.05670235209661127</v>
       </c>
       <c r="E95" t="n">
-        <v>2.039078138010789</v>
+        <v>2.022736671493445</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.1082554119559765</v>
+        <v>-0.1061304861422206</v>
       </c>
       <c r="G95" t="n">
-        <v>0.009337982577276556</v>
+        <v>0.005678388120252457</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.03118618542486265</v>
       </c>
       <c r="E96" t="n">
-        <v>1.952625137773348</v>
+        <v>1.936894390675069</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.006504519878614867</v>
+        <v>-0.003414720343501616</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.03696965997138968</v>
+        <v>-0.04041361380879559</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.006013075723020357</v>
       </c>
       <c r="E97" t="n">
-        <v>1.755090460107476</v>
+        <v>1.744160471329164</v>
       </c>
       <c r="F97" t="n">
-        <v>0.0684848990983925</v>
+        <v>0.07059880677829933</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.06530830023128727</v>
+        <v>-0.06784876709306657</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.0158102831342621</v>
       </c>
       <c r="E98" t="n">
-        <v>1.58004851568499</v>
+        <v>1.572658495910484</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1092582904165655</v>
+        <v>0.1121623556953653</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.08217863717338804</v>
+        <v>-0.08493789269302814</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.03332260854425784</v>
       </c>
       <c r="E99" t="n">
-        <v>1.420493345396982</v>
+        <v>1.413725063175389</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1188566590182571</v>
+        <v>0.1210933401896254</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1109910571887971</v>
+        <v>-0.1125162817173375</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.04674693452759726</v>
       </c>
       <c r="E100" t="n">
-        <v>1.242988061049661</v>
+        <v>1.238665804542569</v>
       </c>
       <c r="F100" t="n">
-        <v>0.135769494476633</v>
+        <v>0.138533472053637</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1080570855466926</v>
+        <v>-0.109661011031298</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.05689839308691847</v>
       </c>
       <c r="E101" t="n">
-        <v>1.103136462122095</v>
+        <v>1.099316317714698</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1041380062149744</v>
+        <v>0.1087231239153233</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1423659803336837</v>
+        <v>-0.1436802862999698</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.06645845766812748</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9466679433309574</v>
+        <v>0.9445367214407163</v>
       </c>
       <c r="F102" t="n">
-        <v>0.09807645857884544</v>
+        <v>0.1019658598275794</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1050129325660971</v>
+        <v>-0.1085765118567219</v>
       </c>
     </row>
   </sheetData>
